--- a/database/httpssekurakplteksty.xlsx
+++ b/database/httpssekurakplteksty.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B403"/>
+  <dimension ref="A1:B420"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5270,6 +5270,210 @@
         </is>
       </c>
     </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>https://info.microsoft.com/ww-landing-strong-identity-management.html?lcid=PL&amp;amp;wt.mc_id=AID3038390_QSG_OLA_569655</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>img alt="" src="https://sekurak.pl/wp-content/uploads/2021/12/msbanner2.jpeg"/</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/czym-jest-system-pegasus-i-czy-polska-go-posiada/#comment-107744</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>Czym jest system Pegasus i czy Polska go posiada?</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/jacek-kurski-przypadkowo-opublikowal-swoj-numer-telefonu-adres/</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>Jacek Kurski przypadkowo opublikował swój numer telefonu / adres</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/log4j-wykryto-kolejny-rce-w-2-17-0-ale-nie-ma-powodow-do-paniki-cve-2021-44832/</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>Log4j: wykryto kolejny RCE w 2.17.0. Ale nie ma powodów do paniki (CVE-2021-44832)</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/podrobiona-strona-bankowosci-pko-bp-czy-dostrzezesz-drobna-zmiane-w-adresie/</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>Podrobiona strona bankowości PKO BP – czy dostrzeżesz drobną zmianę w adresie?</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/potwierdzenie-trafienia-pegasusem-kolejnej-znanej-osoby-w-polsce-telefon-senatora-krzysztofa-brejzy-infekowano-az-33-razy/#comment-107710</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>Potwierdzenie trafienia Pegasusem kolejnej znanej osoby w Polsce. Telefon senatora Krzysztofa Brejzy infekowano aż 33 razy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/potwierdzenie-trafienia-pegasusem-kolejnej-znanej-osoby-w-polsce-telefon-senatora-krzysztofa-brejzy-infekowano-az-33-razy/#comment-107742</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>Potwierdzenie trafienia Pegasusem kolejnej znanej osoby w Polsce. Telefon senatora Krzysztofa Brejzy infekowano aż 33 razy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/potwierdzenie-trafienia-pegasusem-kolejnej-znanej-osoby-w-polsce-telefon-senatora-krzysztofa-brejzy-infekowano-az-33-razy/#comment-107765</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>Potwierdzenie trafienia Pegasusem kolejnej znanej osoby w Polsce. Telefon senatora Krzysztofa Brejzy infekowano aż 33 razy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/potwierdzenie-trafienia-pegasusem-kolejnej-znanej-osoby-w-polsce-telefon-senatora-krzysztofa-brejzy-infekowano-az-33-razy/#comment-107794</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>Potwierdzenie trafienia Pegasusem kolejnej znanej osoby w Polsce. Telefon senatora Krzysztofa Brejzy infekowano aż 33 razy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/potwierdzenie-trafienia-pegasusem-kolejnej-znanej-osoby-w-polsce-telefon-senatora-krzysztofa-brejzy-infekowano-az-33-razy/#comment-107814</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>Potwierdzenie trafienia Pegasusem kolejnej znanej osoby w Polsce. Telefon senatora Krzysztofa Brejzy infekowano aż 33 razy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/potwierdzenie-trafienia-pegasusem-kolejnej-znanej-osoby-w-polsce-telefon-senatora-krzysztofa-brejzy-infekowano-az-33-razy/#comment-107839</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>Potwierdzenie trafienia Pegasusem kolejnej znanej osoby w Polsce. Telefon senatora Krzysztofa Brejzy infekowano aż 33 razy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/potwierdzenie-trafienia-pegasusem-kolejnej-znanej-osoby-w-polsce-telefon-senatora-krzysztofa-brejzy-infekowano-az-33-razy/#comment-107856</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>Potwierdzenie trafienia Pegasusem kolejnej znanej osoby w Polsce. Telefon senatora Krzysztofa Brejzy infekowano aż 33 razy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/potwierdzenie-trafienia-pegasusem-kolejnej-znanej-osoby-w-polsce-telefon-senatora-krzysztofa-brejzy-infekowano-az-33-razy/#comment-107859</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>Potwierdzenie trafienia Pegasusem kolejnej znanej osoby w Polsce. Telefon senatora Krzysztofa Brejzy infekowano aż 33 razy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/potwierdzenie-trafienia-pegasusem-kolejnej-znanej-osoby-w-polsce-telefon-senatora-krzysztofa-brejzy-infekowano-az-33-razy/</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>Potwierdzenie trafienia Pegasusem kolejnej znanej osoby w Polsce. Telefon senatora Krzysztofa Brejzy infekowano aż 33 razy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/system-do-platnosci-uzywal-podatnej-biblioteki-log4j-dostali-sie-wiec-na-serwer-duzej-gieldy-kryptowalut-wietnam/</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>System do płatności używał podatnej biblioteki log4j. Dostali się więc na serwer dużej giełdy kryptowalut [Wietnam]</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/tag/chrome/</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>chrome</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/wprowadzenie-do-owasp-top-ten-2021-4-godzinne-szkolenie-sekuraka-calkowicie-bezplatnie-nagranie/#comment-107772</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>Wprowadzenie do OWASP Top Ten 2021. ~4-godzinne szkolenie sekuraka, całkowicie bezpłatnie (nagranie).</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpssekurakplteksty.xlsx
+++ b/database/httpssekurakplteksty.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B420"/>
+  <dimension ref="A1:B453"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5474,6 +5474,402 @@
         </is>
       </c>
     </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>http://www.securitum.pl/oferta/szkolenia/wprowadzenie-do-bezpieczenstwa-it-szkolenie</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>Szkolenie: Wprowadzenie do bezpieczeństwa IT</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/bezplatne-szkolenie-osint-opsec-analiza-dezinformacji-zapisy-dla-kazdego/#comment-113770</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>Bezpłatne szkolenie OSINT/OPSEC/analiza dezinformacji. Zapisy dla każdego!</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/czy-zielona-klodka-w-przegladarce-https-certyfikat-ssl-chroni-przed-czymkolwiek/#comments</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>komentarzy 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/czy-zielona-klodka-w-przegladarce-https-certyfikat-ssl-chroni-przed-czymkolwiek/</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>Czy zielona kłódka w przeglądarce chroni przed czymkolwiek?</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/czym-tak-naprawde-byl-gigantyczny-wyciek-z-wojska-analiza/#comments</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>komentarzy 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/czym-tak-naprawde-byl-gigantyczny-wyciek-z-wojska-analiza/</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>Czym tak naprawdę był „gigantyczny wyciek” z wojska – analiza</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/elon-musk-potwierdza-zaklocanie-czesci-satelit-starlink-nad-ukraina/#comment-113765</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>Elon Musk potwierdza zakłócanie części satelit Starlink nad Ukrainą</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/elon-musk-potwierdza-zaklocanie-czesci-satelit-starlink-nad-ukraina/#comment-113773</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>Elon Musk potwierdza zakłócanie części satelit Starlink nad Ukrainą</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/elon-musk-potwierdza-zaklocanie-czesci-satelit-starlink-nad-ukraina/#comment-113775</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>Elon Musk potwierdza zakłócanie części satelit Starlink nad Ukrainą</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/elon-musk-potwierdza-zaklocanie-czesci-satelit-starlink-nad-ukraina/</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>Elon Musk potwierdza zakłócanie części satelit Starlink nad Ukrainą</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/jak-wykorzystalem-podatnosc-log4shell-cve-2021-44228-w-kontrolerze-wifi-od-ubiquiti-poc/#comments</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>komentarze 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/jak-wykorzystalem-podatnosc-log4shell-cve-2021-44228-w-kontrolerze-wifi-od-ubiquiti-poc/</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>Jak wykorzystałem podatność log4shell (CVE-2021-44228) w kontrolerze WiFi od Ubiquiti. PoC:</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/kupil-akwarium-oraz-akcesoria-przeskanowal-api-i-dostal-roota/#comments</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>komentarze 22</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/kupil-akwarium-oraz-akcesoria-przeskanowal-api-i-dostal-roota/</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>Kupił akwarium. Oraz akcesoria. Przeskanował API i dostał roota.</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/microsoft-oglasza-zastopowanie-calej-nowej-sprzedazy-produktow-uslug-w-rosji-dodatkowo-zapewnia-cyberochrone-ukrainie/</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>Microsoft ogłasza zastopowanie całej nowej sprzedaży produktów / usług w Rosji. Dodatkowo – zapewnią aktywną cyberochronę Ukrainie</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/na-osint-owym-tropie-tajnej-niemieckiej-organizacji-czwartki-z-osintem/#comments</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>komentarzy 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/na-osint-owym-tropie-tajnej-niemieckiej-organizacji-czwartki-z-osintem/</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>Na OSINT-owym tropie tajnej niemieckiej organizacji [czwartki z OSINTem]</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/nocny-start-antonova-124-100-apel-nie-publikujcie-tego-typu-filmow-materialow/#comment-113761</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>Nocny start Antonova 124-100. Apel – nie publikujcie tego typu filmów / materiałów!</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/nocny-start-antonova-124-100-apel-nie-publikujcie-tego-typu-filmow-materialow/</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>Nocny start Antonova 124-100. Apel – nie publikujcie tego typu filmów / materiałów!</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/o-czym-pamietac-konfigurujac-bezpieczenstwo-domowego-routera-wifi/#comments</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>komentarzy 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/o-czym-pamietac-konfigurujac-bezpieczenstwo-domowego-routera-wifi/</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>O czym pamiętać, konfigurując bezpieczeństwo domowego routera WiFi?</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/praktyczne-wprowadzenie-do-bezpieczenstwa-it-bezplatne-szkolenie/#comment-113755</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>Praktyczne wprowadzenie do bezpieczeństwa IT – bezpłatne szkolenie od sekuraka!</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/praktyczne-wprowadzenie-do-bezpieczenstwa-it-bezplatne-szkolenie/#comment-113768</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>Praktyczne wprowadzenie do bezpieczeństwa IT – bezpłatne szkolenie od sekuraka!</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/praktyczne-wprowadzenie-do-bezpieczenstwa-it-bezplatne-szkolenie/#comment-113772</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>Praktyczne wprowadzenie do bezpieczeństwa IT – bezpłatne szkolenie od sekuraka!</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/praktyczne-wprowadzenie-do-bezpieczenstwa-it-bezplatne-szkolenie/#comment-113774</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>Praktyczne wprowadzenie do bezpieczeństwa IT – bezpłatne szkolenie od sekuraka!</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/praktyczne-wprowadzenie-do-bezpieczenstwa-it-bezplatne-szkolenie/</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>Wbijaj na nasze bezpłatne szkolenie</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/przyspieszony-kurs-lamania-kryptografii-hive-ransomware/#comments</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>komentarze 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/przyspieszony-kurs-lamania-kryptografii-hive-ransomware/</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>Przyspieszony kurs łamania kryptografii Hive ransomware ;-)</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/rompetrol-rumunska-firma-z-branzy-paliwowej-uderzona-przez-ransomware/</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>Rompetrol: rumuńska firma z branży paliwowej uderzona przez ransomware.</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/rosja-odlacza-sie-od-internetu-11-marca-to-nieprawdziwa-informacja-maja-byc-za-to-zmiany-w-dns-hostingu/</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>„Rosja odłącza się od Internetu 11. marca” – to nieprawdziwa informacja. Mają być za to zmiany w DNS, hostingu, …</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/tag/phishing/</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>Phishing</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/teksty/page/22/</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>Ostatnia »</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/uruchamiamy-bezplatne-szkolenie-cybersecurity-dla-instutucji-rzadowych-i-firm-zapisy-start/#comment-113769</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>Uruchamiamy bezpłatne szkolenie cybersecurity dla instytucji rządowych i firm! Zapisy start.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpssekurakplteksty.xlsx
+++ b/database/httpssekurakplteksty.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B453"/>
+  <dimension ref="A1:B470"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5870,6 +5870,210 @@
         </is>
       </c>
     </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/aktualizacja-tor-browser-lata-krytyczne-podatnosci-jest-tu-pewien-niuans-warty-uwagi/#comment-114224</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>Aktualizacja Tor Browser łata krytyczne podatności. Jest tu pewien niuans warty uwagi…</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/bezplatny-dostep-do-zapisu-filmowego-szkolenia-praktyczne-wprowadzenie-do-bezpieczenstwa-it/#comment-114229</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>Bezpłatny dostęp do zapisu filmowego szkolenia: praktyczne wprowadzenie do bezpieczeństwa IT</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/bezplatny-dostep-do-zapisu-filmowego-szkolenia-praktyczne-wprowadzenie-do-bezpieczenstwa-it/</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>Wbijaj na nasze bezpłatne szkolenie</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/chmara-dronow-zobaczcie-ogromny-klikalny-kod-qr-nad-miastem-a-co-gdyby-ktos-umiescil-tam-jakis-zlosliwy-link/#comment-114197</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>Chmara dronów: zobaczcie ogromny klikalny kod QR nad miastem.  A co gdyby ktoś umieścił tam złośliwy link? :-)</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/chmara-dronow-zobaczcie-ogromny-klikalny-kod-qr-nad-miastem-a-co-gdyby-ktos-umiescil-tam-jakis-zlosliwy-link/</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>Chmara dronów: zobaczcie ogromny klikalny kod QR nad miastem.  A co gdyby ktoś umieścił tam złośliwy link? :-)</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/kampania-przejmowania-telefonow-kierowana-na-uzytkownikow-samsunga-xiaomi-wykorzystywali-bledy-n-day-we-wbudowanych-przegladarkach/#comment-114225</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>Kampania przejmowania telefonów kierowana na użytkowników Samsunga/Xiaomi. Wykorzystywali błędy n-day we wbudowanych przeglądarkach</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/latajcie-iphone-y-ios-15-4-naprawia-ogrom-podatnosci-w-tym-potencjalna-mozliwosc-przejecia-telefonu-pdfem/#comment-114233</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>Łatajcie iPhone-y. iOS 15.4 naprawia ogrom podatności (w tym potencjalną możliwość przejęcia telefonu… PDFem)</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/latajcie-iphone-y-ios-15-4-naprawia-ogrom-podatnosci-w-tym-potencjalna-mozliwosc-przejecia-telefonu-pdfem/</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>Łatajcie iPhone-y. iOS 15.4 naprawia ogrom podatności (w tym potencjalną możliwość przejęcia telefonu… PDFem)</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/najwiekszy-w-historii-atak-ddos-na-rzadowa-infrastrukture-w-izraelu/</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>Największy w historii atak DDoS na rządową infrastrukturę w Izraelu</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/niemieckie-bsi-ostrzega-przed-uzywaniem-produktow-antywirusowych-firmy-kaspersky-zalecamy-uzycie-innego-oprogramowania/</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>Niemieckie BSI ostrzega przed używaniem produktów antywirusowych firmy Kaspersky. „Zalecamy użycie innego oprogramowania”</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/o-czym-pamietac-konfigurujac-bezpieczenstwo-domowego-routera-wifi/#comment-114180</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>O czym pamiętać, konfigurując bezpieczeństwo domowego routera WiFi?</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/ukraina-uzyskala-dostep-do-zaawansowanego-systemu-rozpoznawania-twarzy-clearview-ai-moze-namierzac-np-rosyjskich-dywersantow/#comment-114179</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>Ukraina uzyskała dostęp do zaawansowanego systemu rozpoznawania twarzy (Clearview AI). Może namierzać np. rosyjskich dywersantów</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/ukraina-uzyskala-dostep-do-zaawansowanego-systemu-rozpoznawania-twarzy-clearview-ai-moze-namierzac-np-rosyjskich-dywersantow/#comment-114181</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>Ukraina uzyskała dostęp do zaawansowanego systemu rozpoznawania twarzy (Clearview AI). Może namierzać np. rosyjskich dywersantów</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/ukraina-uzyskala-dostep-do-zaawansowanego-systemu-rozpoznawania-twarzy-clearview-ai-moze-namierzac-np-rosyjskich-dywersantow/#comment-114231</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>Ukraina uzyskała dostęp do zaawansowanego systemu rozpoznawania twarzy (Clearview AI). Może namierzać np. rosyjskich dywersantów</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/ukrainska-transformacja-cyfrowa-w-czasie-wojny/</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>Ukraińska transformacja cyfrowa w czasie wojny</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/wsparlismy-ukraine-kwota-25100-zl-dolaczysz/#comment-114230</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>Wsparliśmy Ukrainę kwotą 25100 zł. Dołączysz? :-)</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/duza-awaria-w-lokalnych-centrach-sterowania-na-kolei-w-polsce-szykujcie-sie-na-duze-opoznienia-pociagow/</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>Duża awaria w lokalnych centrach sterowania na kolei w Polsce. Szykujcie się na duże opóźnienia pociągów.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpssekurakplteksty.xlsx
+++ b/database/httpssekurakplteksty.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B470"/>
+  <dimension ref="A1:B471"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6074,6 +6074,18 @@
         </is>
       </c>
     </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/hacker-uruchomil-w-srodku-nocy-dzwony-w-wiedenskiej-katedrze-czyzby-system-sterowania-dzwonami-byl-na-shodanie/</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>„Hacker uruchomił w środku nocy dzwony w wiedeńskiej katedrze”. Czyżby system sterowania dzwonami był na Shodanie? ;-)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpssekurakplteksty.xlsx
+++ b/database/httpssekurakplteksty.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B471"/>
+  <dimension ref="A1:B592"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6086,6 +6086,1439 @@
         </is>
       </c>
     </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="/nota-prawna"</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>Nota prawna</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="http://securitum.pl/audyty/?sekurak"</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>Audyty</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="http://securitum.pl/szkolenia/"</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>Szkolenia - bezpieczeństwo IT</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="http://sekurak.pl/?cat=7,3"</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>Aktualności</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="http://sekurak.pl/bezpieczenstwo-sieci-wi-fi-czesc-1/"</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>Bezpieczeństwo WiFi: 9-częściowy kurs</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="http://sekurak.pl/ciekawa-praca-dla-pentestera/"</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>Ciekawa praca dla pentestera</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="http://sekurak.pl/czym-jest-analiza-ryzyka-it-wprowadzenie/"</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>Jak zdroworozsądkowo podejść do analizy ryzyka IT?</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="http://sekurak.pl/wewnetrzny-audyt-bezpieczenstwa-w-jednostkach-publicznych/"</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>Wymogi audytu bezpieczeństwa w jednostkach administracji publicznej</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="http://www.securitum.pl/audyty/"</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>Audyt bezpieczeństwa / testy penetracyjne</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="http://www.securitum.pl/oferta/szkolenia/wprowadzenie-do-bezpieczenstwa-it-szkolenie
+"</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>Szkolenie: Wprowadzenie do bezpieczeństwa IT</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="http://www.sekurak.pl"</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>sekurak</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://feeds.feedburner.com/sekurak"</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr"/>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://google.com/+sekurakPL"</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr"/>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://jasieniec.pl/"</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>Piotr</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/"</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>Sekurak - piszemy o bezpieczeństwie</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/czy-zielona-klodka-w-przegladarce-https-certyfikat-ssl-chroni-przed-czymkolwiek/"</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>Czy zielona kłódka w przeglądarce chroni przed czymkolwiek?</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/czy-zielona-klodka-w-przegladarce-https-certyfikat-ssl-chroni-przed-czymkolwiek/#comments"</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>komentarzy 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/czym-jest-oprogramowanie-szpiegowskie-pegasus-analiza-zagrozenia-oraz-metody-jego-wykrywania/"</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>Czym jest oprogramowanie szpiegowskie Pegasus? Analiza zagrożenia oraz metody jego wykrywania</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/czym-jest-oprogramowanie-szpiegowskie-pegasus-analiza-zagrozenia-oraz-metody-jego-wykrywania/#comments"</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>komentarzy 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/czym-tak-naprawde-byl-gigantyczny-wyciek-z-wojska-analiza/"</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>Czym tak naprawdę był „gigantyczny wyciek” z wojska – analiza</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/czym-tak-naprawde-byl-gigantyczny-wyciek-z-wojska-analiza/#comments"</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>komentarzy 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/diabelsko-sprytny-phishing-uzywany-przez-bialoruska-grupe-apt-ktora-ma-w-zwyczaju-atakowanie-rowniez-polskich-uzytkownikow/"</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>Diabelsko sprytny phishing używany przez białoruską grupę APT, która ma w zwyczaju atakowanie również polskich użytkowników… uważajcie!</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/diabelsko-sprytny-phishing-uzywany-przez-bialoruska-grupe-apt-ktora-ma-w-zwyczaju-atakowanie-rowniez-polskich-uzytkownikow/#comment-115308"</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>Diabelsko sprytny phishing używany przez białoruską grupę APT, która ma w zwyczaju atakowanie również polskich użytkowników… uważajcie!</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/gitlab-jak-uploadem-mozna-bylo-czytac-pliki-z-serwera-podatnosc-warta-120-000zl/"</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>Gitlab. Jak uploadem można było *czytać* pliki z serwera? Podatność warta ~120 000zł</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/gitlab-jak-uploadem-mozna-bylo-czytac-pliki-z-serwera-podatnosc-warta-120-000zl/#comment-115375"</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>Gitlab. Jak uploadem można było *czytać* pliki z serwera? Podatność warta ~120 000zł</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/jak-skonfigurowac-maca-pod-katem-bezpieczenstwa-i-prywatnosci-poradnik-dla-uzytkownikow-systemow-macos/"</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>Jak skonfigurować Maca pod kątem bezpieczeństwa i prywatności? Poradnik dla użytkowników systemów macOS</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/jak-skonfigurowac-maca-pod-katem-bezpieczenstwa-i-prywatnosci-poradnik-dla-uzytkownikow-systemow-macos/#comments"</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>komentarzy 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/jak-wykorzystalem-podatnosc-log4shell-cve-2021-44228-w-kontrolerze-wifi-od-ubiquiti-poc/"</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>Jak wykorzystałem podatność log4shell (CVE-2021-44228) w kontrolerze WiFi od Ubiquiti. PoC:</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/jak-wykorzystalem-podatnosc-log4shell-cve-2021-44228-w-kontrolerze-wifi-od-ubiquiti-poc/#comments"</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>komentarze 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/konkurs-sekuraka-na-najlepszy-tekst-o-bezpieczenstwie-do-wygrania-w-sumie-20-000-w-gotowce-aktualizacja/#comment-115366"</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>Konkurs sekuraka na najlepszy tekst o bezpieczeństwie – do wygrania w sumie 20 000 PLN w gotówce [aktualizacja]</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/kontakt/"</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>Kontakt</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/krytyczna-podatnosc-w-firewallach-sophosa-rce-bez-uwierzytelnienia/"</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>Krytyczna podatność w firewallach Sophosa (RCE bez uwierzytelnienia)</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/kupil-akwarium-oraz-akcesoria-przeskanowal-api-i-dostal-roota/"</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>Kupił akwarium. Oraz akcesoria. Przeskanował API i dostał roota.</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/kupil-akwarium-oraz-akcesoria-przeskanowal-api-i-dostal-roota/#comments"</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>komentarze 22</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/menedzer-hasel-keepassxc-czy-jest-jak-uzywac-poradnik-od-sekuraka/"</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>Menedżer haseł KeePassXC. Czym jest? Jak używać? Poradnik od sekuraka.</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/menedzer-hasel-keepassxc-czy-jest-jak-uzywac-poradnik-od-sekuraka/#comments"</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>komentarzy 48</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/na-osint-owym-tropie-tajnej-niemieckiej-organizacji-czwartki-z-osintem/"</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>Na OSINT-owym tropie tajnej niemieckiej organizacji [czwartki z OSINTem]</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/na-osint-owym-tropie-tajnej-niemieckiej-organizacji-czwartki-z-osintem/#comments"</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>komentarzy 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/nie-daj-sie-cyberzbojom-uruchamiamy-bezplatne-szkolenie-dla-szkol-szkoly-podstawowe-srednie-uczelnie/#comment-115328"</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>Nie daj się cyberzbójom! Uruchamiamy bezpłatne szkolenie dla szkół (szkoły podstawowe/średnie/uczelnie).</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/nie-daj-sie-cyberzbojom-uruchamiamy-bezplatne-szkolenie-dla-szkol-szkoly-podstawowe-srednie-uczelnie/#comment-115367"</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>Nie daj się cyberzbójom! Uruchamiamy bezpłatne szkolenie dla szkół (szkoły podstawowe/średnie/uczelnie).</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/nie-daj-sie-cyberzbojom-uruchamiamy-bezplatne-szkolenie-dla-szkol-szkoly-podstawowe-srednie-uczelnie/#comment-115388"</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>Nie daj się cyberzbójom! Uruchamiamy bezpłatne szkolenie dla szkół (szkoły podstawowe/średnie/uczelnie).</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/nowe-skondensowane-szkolenia-od-sekuraka-super-pakiety-rabatowe-zaplanuj-swoja-sciezke-szkoleniowa-na-2021/"</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>Szkolenia</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/o-czym-pamietac-konfigurujac-bezpieczenstwo-domowego-routera-wifi/"</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>O czym pamiętać, konfigurując bezpieczeństwo domowego routera WiFi?</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/o-czym-pamietac-konfigurujac-bezpieczenstwo-domowego-routera-wifi/#comments"</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>komentarzy 29</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/o-nas/"</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>O nas</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/owasp-top-ten-2021-a05-security-misconfiguration-przeglad-przypadkow/"</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>OWASP Top Ten 2021: A05: Security Misconfiguration. Przegląd przypadków</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/owasp-top-ten-2021-a05-security-misconfiguration-przeglad-przypadkow/#comments"</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>1 komentarz</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/phishing-na-netflixa-wykradajacy-dane-kart-platniczych-uwazacie/"</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>Phishing „na Netflixa” wykradający dane kart płatniczych. Uważajcie.</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/poradnik-o-kluczach-sprzetowych-na-przykladzie-yubikey-5-nfc-2fa-u2f-fido2/"</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>Poradnik o kluczach sprzętowych na przykładzie YubiKey 5 NFC (2FA, U2F, FIDO2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/poradnik-o-kluczach-sprzetowych-na-przykladzie-yubikey-5-nfc-2fa-u2f-fido2/#comments"</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>komentarzy 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/przyspieszony-kurs-lamania-kryptografii-hive-ransomware/"</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>Przyspieszony kurs łamania kryptografii Hive ransomware ;-)</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/przyspieszony-kurs-lamania-kryptografii-hive-ransomware/#comments"</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>komentarze 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/ransomware-w-szkockim-stowarzyszenia-zdrowia-psychicznego/"</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>Ransomware w Szkockim Stowarzyszeniu Zdrowia Psychicznego. Opublikowano 12 GB danych…</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/tag/android/"</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>android</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/tag/anonimowosc/"</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>anonimowość</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/tag/apple/"</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/tag/atak/"</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>atak</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/tag/backdoor/"</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>backdoor</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/tag/bezpieczenstwo/"</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>bezpieczeństwo</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/tag/bug-bounty/"</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>bug bounty</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/tag/chrome/"</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>chrome</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/tag/ciekawostki/"</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>ciekawostki</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/tag/exploit/"</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>Exploit</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/tag/facebook/"</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/tag/firefox/"</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>firefox</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/tag/google/"</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>google</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/tag/hack/"</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>hack</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/tag/hacking/"</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>hacking</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/tag/hasla/"</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>hasła</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/tag/internet/"</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/tag/ios/"</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>iOS</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/tag/iot/"</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>iot</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/tag/iphone/"</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>iphone</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/tag/ksiazka/"</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>książka</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/tag/linux/"</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>linux</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/tag/malware/"</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>malware</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/tag/microsoft/"</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>Microsoft</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/tag/nsa/"</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>nsa</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/tag/oszustwo/"</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>oszustwo</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/tag/patronat/"</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>patronat</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/tag/phishing/"</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>Phishing</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/tag/podatnosc/"</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>podatność</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/tag/podatnosci/"</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>podatności</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/tag/prywatnosc/"</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>prywatność</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/tag/ransomware/"</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>ransomware</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/tag/rce/"</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>rce</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/tag/root/"</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/tag/sekurak/"</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>sekurak</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/tag/shp/"</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>shp</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/tag/szkolenie/"</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>szkolenie</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/tag/szyfrowanie/"</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>szyfrowanie</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/tag/usa/"</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/tag/websecurity/"</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>websecurity</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/tag/wifi/"</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>wifi</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/tag/windows/"</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>Windows</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/tag/wyciek/"</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>wyciek</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/tag/xss/"</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>XSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/tag/zabezpieczenia/"</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>zabezpieczenia</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/teksty/"</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>Teksty</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/teksty/page/10/"</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/teksty/page/2/"</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/teksty/page/20/"</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/teksty/page/22/"</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>Ostatnia »</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/teksty/page/3/"</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/teksty/page/4/"</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/teksty/page/5/"</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/uruchamiamy-bezplatne-szkolenie-cybersecurity-dla-instutucji-rzadowych-i-firm-zapisy-start/#comment-115307"</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>Nie daj się cyberzbójom:  bezpłatne szkolenie cybersecurity dla instytucji rządowych i firm! Zapisy start.</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/uwaga-krytyczna-podatnosc-w-spring-core-spring4shell-mozna-przejmowac-bez-uwierzytelnienia-aplikacje-systemy-rce/#comment-115371"</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>Uwaga, krytyczna podatność w Spring Core. Spring4Shell. Można przejmować (bez uwierzytelnienia) aplikacje / systemy (RCE).</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/uwaga-krytyczna-podatnosc-w-spring-core-spring4shell-mozna-przejmowac-bez-uwierzytelnienia-aplikacje-systemy-rce/#comment-115374"</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>Uwaga, krytyczna podatność w Spring Core. Spring4Shell. Można przejmować (bez uwierzytelnienia) aplikacje / systemy (RCE).</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/wstep-do-bezpieczenstwa-active-directory-rekonesans-z-powerview/"</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>Wstęp do bezpieczeństwa Active Directory – rekonesans z PowerView</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/wstep-do-bezpieczenstwa-active-directory-rekonesans-z-powerview/#comments"</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>komentarzy 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/wykrywanie-zagrozen-sieci-bezprzewodowych-za-pomoca-bezplatnego-narzedzia-nzyme/"</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>Wykrywanie zagrożeń sieci bezprzewodowych za pomocą bezpłatnego narzędzia klasy IDS: nzyme</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/wykrywanie-zagrozen-sieci-bezprzewodowych-za-pomoca-bezplatnego-narzedzia-nzyme/#comments"</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>komentarzy 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/zdalne-wykonanie-kodu-przez-fail2ban/"</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>Zdalne wykonanie kodu przez fail2ban</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/zdalne-wykonanie-kodu-przez-fail2ban/#comments"</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>komentarzy 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sekurak.pl/zobacz-cyberatak-na-zywo-zapraszamy-na-bezplatne-szkolenie-od-sekuraka/#comment-115383"</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>Zobacz cyberatak na żywo! – zapraszamy na bezpłatne szkolenie od sekuraka</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://sklep.sekurak.pl/product/view?id=1"</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>Książka sekuraka o bezpieczeństwie aplikacji webowych</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://twitter.com/sekurak"</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr"/>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://www.facebook.com/sekurak"</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr"/>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="https://www.zerto.com/page/get-out-of-ransomware-jail/"</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr"/>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/href="mailto:aj@securitum.pl"</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>aj@securitum.pl</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpssekurakplteksty.xlsx
+++ b/database/httpssekurakplteksty.xlsx
@@ -1,140 +1,3 @@
-
-<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
-  <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
-  </bookViews>
-  <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1" sheetId="1" state="visible" r:id="rId1"/>
-  </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
-</workbook>
-</file>
-
-<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-  </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
-</styleSheet>
-</file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
@@ -425,7 +288,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B592"/>
+  <dimension ref="A1:B615"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7519,6 +7382,282 @@
         </is>
       </c>
     </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/analiza-czasowa-z-wykorzystaniem-nieco-ukrytych-danych-czwartki-z-osintem/#comments</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>1 komentarz</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/analiza-czasowa-z-wykorzystaniem-nieco-ukrytych-danych-czwartki-z-osintem/</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>Analiza czasowa z wykorzystaniem (nieco) ukrytych danych [Czwartki z OSINTem]</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/bezplatne-szkolenie-jak-sprawdzic-czy-moj-windows-jest-zainfekowany-podstawy-analizy-powlamaniowej-zapisy-start/#comment-117820</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>Bezpłatne szkolenie: Jak sprawdzić czy mój Windows jest zainfekowany? Podstawy analizy powłamaniowej. Zapisy start!</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/bulgarska-poczta-zaszyfrowana-osrodek-glowny-i-zapasowe-trafionych-blisko-7000-komputerow/</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>Bułgarska poczta zaszyfrowana. Ośrodek główny i zapasowe. Trafionych blisko 7000 komputerów</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/elon-musk-uruchamia-star-link-na-ukrainie-sa-jednak-potencjalne-zagrozenia-o-ktorych-warto-pamietac/#comment-117835</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>Elon Musk uruchamia Starlink na Ukrainie. Są jednak potencjalne zagrożenia, o których warto pamiętać.</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/mailto:aj@securitum.pl</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>aj@securitum.pl</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/makabryczna-podatnosc-w-urzadzeniach-bigip-f5-latajcie-sie/#comment-117604</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>Makabryczna podatność w urządzeniach BigIP F5. Łatajcie się!</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/makabryczna-podatnosc-w-urzadzeniach-bigip-f5-latajcie-sie/#comment-117750</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>Makabryczna podatność w urządzeniach BigIP F5. Łatajcie się!</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/makabryczna-podatnosc-w-urzadzeniach-bigip-f5-latajcie-sie/</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>Makabryczna podatność w urządzeniach BigIP F5. Łatajcie się!</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/malo-dzis-nie-stracilam-calej-kasy-z-konta-a-bylo-to-tak-zalogowalam-sie-do-vinted-zeby-troche-niepotrzebnych-butow-i-szmat-sie-pozbyc-wiosna-idzie/#comment-117706</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>Mało dziś nie straciłam całej kasy z konta. A było to tak: Zalogowałam się do Vinted,  żeby trochę niepotrzebnych butów i szmat się pozbyć (wiosna idzie)…</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/metadane-swiety-graal-czy-slepy-zaulek-czwartki-z-osintem/</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>Metadane – Święty Graal czy ślepy zaułek? [Czwartki z OSINTem]</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/nowe-skondensowane-szkolenia-od-sekuraka-super-pakiety-rabatowe-zaplanuj-swoja-sciezke-szkoleniowa-na-2021/#comment-117748</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>Nowe, skondensowane szkolenia od Sekuraka + super pakiety rabatowe. Zaplanuj swoją ścieżkę szkoleniową na 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/nowy-ios-lata-serie-krytycznych-podatnosci-w-iphoneach-ipadach/#comment-117597</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>Nowy iOS łata serię krytycznych podatności w iPhone-ach / iPadach</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/nowy-ios-lata-serie-krytycznych-podatnosci-w-iphoneach-ipadach/</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>Nowy iOS łata serię krytycznych podatności w iPhone-ach / iPadach</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/o-jeden-osint-za-daleko-czyli-przykre-skutki-zlych-analiz-czwartki-z-osintem/#respond</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>0 komentarzy</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/o-jeden-osint-za-daleko-czyli-przykre-skutki-zlych-analiz-czwartki-z-osintem/</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>O jeden OSINT za daleko, czyli przykre skutki złych analiz [Czwartki z OSINTem]</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/pyscript-czyli-python-w-twojej-przegladarce-co-mozna-nim-zrobic/#comments</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>komentarzy 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/pyscript-czyli-python-w-twojej-przegladarce-co-mozna-nim-zrobic/</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>PyScript – czyli Python w Twojej przeglądarce + co można nim zrobić?</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/wprowadzenie-do-bezpieczenstwa-it-12-godzin-kompleksowej-wiedzy-od-sekuraka-nie-przegap-rabatu-50/#comment-117747</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>Wprowadzenie do bezpieczeństwa IT – 12 godzin kompleksowej wiedzy od Sekuraka. Nie przegap rabatu 50%!</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/wprowadzenie-do-bezpieczenstwa-it-12-godzin-kompleksowej-wiedzy-od-sekuraka-nie-przegap-rabatu-50/#comment-117749</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>Wprowadzenie do bezpieczeństwa IT – 12 godzin kompleksowej wiedzy od Sekuraka. Nie przegap rabatu 50%!</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/wysylasz-e-maila-z-faktura-do-odbiorcy-dociera-wiadomosc-z-oryginalna-faktura-ale-ze-zmienionym-numerem-konta-bankowego-jak-do-tego-doszlo/#comment-117834</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>Wysyłasz e-maila z fakturą. Do odbiorcy dociera wiadomość z oryginalną fakturą ale… ze zmienionym numerem konta bankowego. Jak do tego doszło!?</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>https://sekurak.pl/zgarnij-za-darmo-bilet-na-mega-sekurak-hacking-party-czas-start/</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>Zgarnij za darmo bilet na MEGA sekurak hacking party.  Czas start!</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>https://sklep.securitum.pl/mshp-edycja-zdalna-czerwiec-2022</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>zdobądź bilety tutaj</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
